--- a/PrimeInsulationBilling/Templates/test_sheet.xlsx
+++ b/PrimeInsulationBilling/Templates/test_sheet.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\.NET\PrimeInsulationBilling\PrimeInsulationBilling\Templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A625D5-E2B3-4CAC-8452-71E800D4E97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="74">
   <si>
     <t>TAX INVOICE</t>
   </si>
@@ -35,12 +40,6 @@
     <t>34, Omkareshwar Nagar 2,</t>
   </si>
   <si>
-    <t>56/25-26</t>
-  </si>
-  <si>
-    <t>08.10.2025</t>
-  </si>
-  <si>
     <t>B/h. Collage, Kalol,</t>
   </si>
   <si>
@@ -128,9 +127,6 @@
     <t>STATE : Maharashtra CODE: 27</t>
   </si>
   <si>
-    <t>GJ04GH1214</t>
-  </si>
-  <si>
     <t>GST/UIN : 27AIHPR7436A1Z8</t>
   </si>
   <si>
@@ -164,24 +160,12 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>Rice Husk</t>
-  </si>
-  <si>
-    <t>34 Jumbo X 740 Kgs</t>
-  </si>
-  <si>
-    <t>26000 Kgs</t>
-  </si>
-  <si>
     <t>KGS</t>
   </si>
   <si>
     <t>SiO2 85% Min, Al2O3 5%max</t>
   </si>
   <si>
-    <t>1 Jumbo X 840 Kgs</t>
-  </si>
-  <si>
     <t xml:space="preserve">   </t>
   </si>
   <si>
@@ -194,18 +178,12 @@
     <t xml:space="preserve">Fe2O3 0.5% max, Moisture 1% </t>
   </si>
   <si>
-    <t>35 JUMBOS</t>
-  </si>
-  <si>
     <t>max, LOI - 7</t>
   </si>
   <si>
     <t>Amount Chargeble (In Words)</t>
   </si>
   <si>
-    <t>Indian Rupees:One Lac Sixty Nine Thousand One hundred and Sixty Nine rupees only.</t>
-  </si>
-  <si>
     <t>CGST</t>
   </si>
   <si>
@@ -261,110 +239,75 @@
   </si>
   <si>
     <t>This is a Computer Generated Invoice</t>
+  </si>
+  <si>
+    <t>Indian Rupees:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
@@ -644,164 +587,168 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="105">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="4" fillId="0" borderId="12" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="3" numFmtId="4" fillId="0" borderId="12" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="3" numFmtId="9" fillId="0" borderId="11" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="3" numFmtId="4" fillId="0" borderId="16" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="18" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="10" fillId="0" borderId="17" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="3" numFmtId="4" fillId="0" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="3" numFmtId="4" fillId="0" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="21" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="10" fillId="0" borderId="20" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="10" fillId="0" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="3" numFmtId="4" fillId="0" borderId="18" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="3" numFmtId="4" fillId="0" borderId="20" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="21" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="22" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="21" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="0" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="0" borderId="21" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="0" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="0" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="21" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -822,7 +769,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1" descr=""/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -834,7 +787,8 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="0">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
           <a:ext cx="7953375" cy="1638300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1167,935 +1121,905 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:K62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1" topLeftCell="A28">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="true" style="0"/>
-    <col min="4" max="4" width="12" customWidth="true" style="0"/>
-    <col min="5" max="5" width="19.140625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="13.7109375" customWidth="true" style="0"/>
-    <col min="7" max="7" width="14" customWidth="true" style="0"/>
-    <col min="10" max="10" width="14.5703125" customWidth="true" style="0"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1"/>
-    </row>
-    <row r="3" spans="1:11" customHeight="1" ht="15"/>
-    <row r="11" spans="1:11" customHeight="1" ht="18">
-      <c r="A11" s="62" t="s">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-    </row>
-    <row r="12" spans="1:11" customHeight="1" ht="15.75">
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="63" t="s">
+      <c r="G12" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-    </row>
-    <row r="13" spans="1:11" customHeight="1" ht="15">
-      <c r="A13" s="64" t="s">
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="67" t="s">
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="67"/>
-      <c r="H13" s="68" t="s">
+      <c r="G13" s="66"/>
+      <c r="H13" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="67"/>
-      <c r="J13" s="69"/>
-    </row>
-    <row r="14" spans="1:11" customHeight="1" ht="15.75">
-      <c r="A14" s="55" t="s">
+      <c r="I13" s="66"/>
+      <c r="J13" s="68"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="58" t="s">
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="60"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="58"/>
-      <c r="H14" s="59" t="s">
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="60"/>
-      <c r="J14" s="61"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="55" t="s">
+      <c r="G15" s="66"/>
+      <c r="H15" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="67" t="s">
+      <c r="I15" s="66"/>
+      <c r="J15" s="68"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="67"/>
-      <c r="H15" s="68" t="s">
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="67"/>
-      <c r="J15" s="69"/>
-    </row>
-    <row r="16" spans="1:11" customHeight="1" ht="15.75">
-      <c r="A16" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="60" t="s">
+      <c r="G16" s="59"/>
+      <c r="H16" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="59"/>
+      <c r="J16" s="60"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="60"/>
-      <c r="H16" s="59" t="s">
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="60"/>
-      <c r="J16" s="61"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="55" t="s">
+      <c r="G17" s="69"/>
+      <c r="H17" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="70" t="s">
+      <c r="I17" s="69"/>
+      <c r="J17" s="71"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="70"/>
-      <c r="H17" s="71" t="s">
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="72"/>
+      <c r="J18" s="74"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="70"/>
-      <c r="J17" s="72"/>
-    </row>
-    <row r="18" spans="1:11" customHeight="1" ht="15.75">
-      <c r="A18" s="55" t="s">
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="73">
-        <v>1452369874</v>
-      </c>
-      <c r="G18" s="73"/>
-      <c r="H18" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="73"/>
-      <c r="J18" s="75"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="55" t="s">
+      <c r="G19" s="66"/>
+      <c r="H19" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="67" t="s">
+      <c r="I19" s="66"/>
+      <c r="J19" s="68"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="67"/>
-      <c r="H19" s="68" t="s">
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="67"/>
-      <c r="J19" s="69"/>
-    </row>
-    <row r="20" spans="1:11" customHeight="1" ht="15.75">
-      <c r="A20" s="55" t="s">
+      <c r="G20" s="59"/>
+      <c r="H20" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="60" t="s">
+      <c r="I20" s="59"/>
+      <c r="J20" s="60"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="60"/>
-      <c r="H20" s="59" t="s">
+      <c r="G21" s="66"/>
+      <c r="H21" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="60"/>
-      <c r="J20" s="61"/>
-    </row>
-    <row r="21" spans="1:11" customHeight="1" ht="15.75">
-      <c r="A21" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="67" t="s">
+      <c r="I21" s="66"/>
+      <c r="J21" s="68"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="67"/>
-      <c r="H21" s="68" t="s">
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="59"/>
+      <c r="J22" s="60"/>
+    </row>
+    <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="I21" s="67"/>
-      <c r="J21" s="69"/>
-    </row>
-    <row r="22" spans="1:11" customHeight="1" ht="15.75">
-      <c r="A22" s="76" t="s">
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="60"/>
-      <c r="J22" s="61"/>
-    </row>
-    <row r="23" spans="1:11" customHeight="1" ht="16.5">
-      <c r="A23" s="64" t="s">
+      <c r="G23" s="66"/>
+      <c r="H23" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="67" t="s">
+      <c r="I23" s="66"/>
+      <c r="J23" s="68"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="67"/>
-      <c r="H23" s="68" t="s">
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="I23" s="67"/>
-      <c r="J23" s="69"/>
-    </row>
-    <row r="24" spans="1:11" customHeight="1" ht="15.75">
-      <c r="A24" s="55" t="s">
+      <c r="G24" s="59"/>
+      <c r="H24" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="60" t="s">
+      <c r="I24" s="59"/>
+      <c r="J24" s="60"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="60"/>
-      <c r="H24" s="59" t="s">
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="60"/>
-      <c r="J24" s="61"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="55" t="s">
+      <c r="G25" s="66"/>
+      <c r="H25" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="67" t="s">
+      <c r="I25" s="66"/>
+      <c r="J25" s="68"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="G25" s="67"/>
-      <c r="H25" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="I25" s="67"/>
-      <c r="J25" s="69"/>
-    </row>
-    <row r="26" spans="1:11" customHeight="1" ht="15.75">
-      <c r="A26" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="I26" s="60"/>
-      <c r="J26" s="61"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="57"/>
+        <v>11</v>
+      </c>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="60"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="56"/>
       <c r="F27" s="6"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="1:11" customHeight="1" ht="15.75">
-      <c r="A29" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="57"/>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="56"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="9"/>
     </row>
-    <row r="30" spans="1:11" customHeight="1" ht="15.75">
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="80"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="81" t="s">
+      <c r="G30" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="81"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="12" t="s">
+      <c r="H30" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="I30" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="J30" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H30" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="J30" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>1</v>
       </c>
-      <c r="B31" s="80" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="80"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="B31" s="79"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="3"/>
       <c r="F31" s="16">
         <v>38160000</v>
       </c>
-      <c r="G31" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="H31" s="16">
-        <v>6.5</v>
-      </c>
+      <c r="G31" s="17"/>
+      <c r="H31" s="16"/>
       <c r="I31" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="J31" s="18">
-        <v>123564</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>46</v>
+      </c>
+      <c r="J31" s="18"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="19"/>
-      <c r="E32" s="20" t="s">
-        <v>54</v>
-      </c>
+      <c r="E32" s="20"/>
       <c r="F32" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J32" s="21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C33" s="3"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="23" t="s">
-        <v>57</v>
+      <c r="D33" s="19"/>
+      <c r="E33" s="22" t="s">
+        <v>50</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J33" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="56"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="4" t="s">
-        <v>59</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B34" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="55"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J34" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="80"/>
-      <c r="D35" s="83"/>
+        <v>11</v>
+      </c>
+      <c r="B35" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="79"/>
+      <c r="D35" s="82"/>
       <c r="E35" s="3"/>
       <c r="F35" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I35" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J35" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="K35" s="24"/>
-    </row>
-    <row r="36" spans="1:11">
+        <v>48</v>
+      </c>
+      <c r="K35" s="23"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="25"/>
+        <v>11</v>
+      </c>
+      <c r="D36" s="24"/>
       <c r="E36" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I36" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J36" s="26"/>
-    </row>
-    <row r="37" spans="1:11">
+        <v>11</v>
+      </c>
+      <c r="J36" s="25"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E37" s="16"/>
       <c r="F37" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G37" s="16"/>
       <c r="H37" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J37" s="27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>11</v>
+      </c>
+      <c r="J37" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="28"/>
-      <c r="H38" s="29"/>
+        <v>11</v>
+      </c>
+      <c r="G38" s="27"/>
+      <c r="H38" s="28"/>
       <c r="I38" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J38" s="21"/>
     </row>
-    <row r="39" spans="1:11" customHeight="1" ht="15.75">
+    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G39" s="16"/>
       <c r="H39" s="17"/>
       <c r="I39" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J39" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" customHeight="1" ht="15.75">
-      <c r="A40" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="F40" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="I40" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="J40" s="34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J40" s="33">
         <f>J31</f>
-        <v>123564</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" customHeight="1" ht="15.75">
-      <c r="A41" s="84" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41" s="85"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="85"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="85"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="84"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="84"/>
+      <c r="G41" s="84"/>
+      <c r="H41" s="84"/>
+      <c r="I41" s="84"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="1:11" customHeight="1" ht="15.75">
-      <c r="A42" s="88" t="s">
-        <v>62</v>
-      </c>
-      <c r="B42" s="81"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="81"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="81"/>
-      <c r="J42" s="87"/>
-    </row>
-    <row r="43" spans="1:11" customHeight="1" ht="15.75">
-      <c r="A43" s="37"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="89" t="s">
-        <v>63</v>
-      </c>
-      <c r="H43" s="89"/>
-      <c r="I43" s="90"/>
+    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="80"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="80"/>
+      <c r="G42" s="80"/>
+      <c r="H42" s="80"/>
+      <c r="I42" s="80"/>
+      <c r="J42" s="86"/>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="36"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="H43" s="88"/>
+      <c r="I43" s="89"/>
       <c r="J43" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" customHeight="1" ht="15.75">
-      <c r="A44" s="24"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="H44" s="85" t="s">
-        <v>48</v>
-      </c>
-      <c r="I44" s="91"/>
-      <c r="J44" s="40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" customHeight="1" ht="15.75">
-      <c r="A45" s="24"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="85"/>
-      <c r="I45" s="86"/>
-      <c r="J45" s="42">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="23"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="H44" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="I44" s="85"/>
+      <c r="J44" s="39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="23"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="84"/>
+      <c r="I45" s="85"/>
+      <c r="J45" s="41" t="str">
         <f>H45</f>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:11" customHeight="1" ht="15.75">
-      <c r="A46" s="24"/>
-      <c r="G46" s="88" t="s">
-        <v>66</v>
-      </c>
-      <c r="H46" s="81"/>
-      <c r="I46" s="87"/>
-      <c r="J46" s="43"/>
-    </row>
-    <row r="47" spans="1:11" customHeight="1" ht="15.75">
-      <c r="A47" s="24"/>
+    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="23"/>
+      <c r="G46" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="H46" s="80"/>
+      <c r="I46" s="86"/>
+      <c r="J46" s="42"/>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="23"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
-      <c r="G47" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="H47" s="84" t="s">
-        <v>48</v>
-      </c>
-      <c r="I47" s="86"/>
-      <c r="J47" s="45"/>
-    </row>
-    <row r="48" spans="1:11" customHeight="1" ht="15.75">
-      <c r="A48" s="24"/>
+      <c r="G47" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="H47" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="I47" s="85"/>
+      <c r="J47" s="44"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="23"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="84"/>
-      <c r="I48" s="86"/>
-      <c r="J48" s="45">
+      <c r="G48" s="40"/>
+      <c r="H48" s="83"/>
+      <c r="I48" s="85"/>
+      <c r="J48" s="44" t="str">
         <f>H48</f>
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:11" customHeight="1" ht="15.75">
-      <c r="A49" s="24"/>
+    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="23"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="88" t="s">
-        <v>67</v>
-      </c>
-      <c r="H49" s="81"/>
-      <c r="I49" s="87"/>
-      <c r="J49" s="45"/>
-    </row>
-    <row r="50" spans="1:11" customHeight="1" ht="15.75">
-      <c r="A50" s="46"/>
+      <c r="G49" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="80"/>
+      <c r="I49" s="86"/>
+      <c r="J49" s="44"/>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="45"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H50" s="85" t="s">
-        <v>48</v>
-      </c>
-      <c r="I50" s="86"/>
-      <c r="J50" s="45"/>
-    </row>
-    <row r="51" spans="1:11" customHeight="1" ht="15.75">
-      <c r="A51" s="84" t="s">
-        <v>68</v>
-      </c>
-      <c r="B51" s="85"/>
-      <c r="C51" s="85"/>
-      <c r="D51" s="86"/>
+      <c r="G50" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="H50" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="I50" s="85"/>
+      <c r="J50" s="44"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="84"/>
+      <c r="C51" s="84"/>
+      <c r="D51" s="85"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="47">
-        <v>0.001</v>
-      </c>
-      <c r="H51" s="11">
+      <c r="G51" s="46">
+        <v>1E-3</v>
+      </c>
+      <c r="H51" s="80">
         <f>J40*G51</f>
-        <v>123.564</v>
-      </c>
-      <c r="I51" s="87"/>
-      <c r="J51" s="45">
+        <v>0</v>
+      </c>
+      <c r="I51" s="86"/>
+      <c r="J51" s="44">
         <f>H51</f>
-        <v>123.564</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" customHeight="1" ht="15.75">
-      <c r="A52" s="92" t="s">
-        <v>69</v>
-      </c>
-      <c r="B52" s="93"/>
-      <c r="C52" s="93"/>
-      <c r="D52" s="94"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="90" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="91"/>
+      <c r="C52" s="91"/>
+      <c r="D52" s="92"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="88" t="s">
-        <v>70</v>
-      </c>
-      <c r="I52" s="87"/>
-      <c r="J52" s="45">
+      <c r="G52" s="47"/>
+      <c r="H52" s="87" t="s">
+        <v>61</v>
+      </c>
+      <c r="I52" s="86"/>
+      <c r="J52" s="44" t="e">
         <f>H45+J48+J51</f>
-        <v>123.564</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" customHeight="1" ht="15.75">
-      <c r="A53" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="B53" s="56"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="57"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="55"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="56"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="I53" s="96"/>
-      <c r="J53" s="49">
+      <c r="G53" s="47"/>
+      <c r="H53" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="I53" s="77"/>
+      <c r="J53" s="48" t="e">
         <f>J40+J52</f>
-        <v>123687.564</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" customHeight="1" ht="15.75">
-      <c r="A54" s="97" t="s">
-        <v>73</v>
-      </c>
-      <c r="B54" s="98"/>
-      <c r="C54" s="98"/>
-      <c r="D54" s="99"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="93" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="94"/>
+      <c r="C54" s="94"/>
+      <c r="D54" s="95"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="88" t="s">
-        <v>74</v>
-      </c>
-      <c r="I54" s="87"/>
-      <c r="J54" s="50">
-        <v>169169</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" customHeight="1" ht="18.75">
+      <c r="G54" s="35"/>
+      <c r="H54" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="I54" s="86"/>
+      <c r="J54" s="49"/>
+    </row>
+    <row r="55" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="11"/>
       <c r="D55" s="14"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="100" t="s">
-        <v>76</v>
-      </c>
-      <c r="H55" s="101"/>
-      <c r="I55" s="101"/>
-      <c r="J55" s="102"/>
-    </row>
-    <row r="56" spans="1:11" customHeight="1" ht="15.75">
-      <c r="A56" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B56" s="31"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="54"/>
-      <c r="F56" s="40"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="96" t="s">
+        <v>67</v>
+      </c>
+      <c r="H55" s="97"/>
+      <c r="I55" s="97"/>
+      <c r="J55" s="98"/>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" s="30"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="39"/>
       <c r="G56" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="76" t="s">
-        <v>78</v>
-      </c>
-      <c r="B57" s="77"/>
-      <c r="C57" s="77"/>
-      <c r="D57" s="77"/>
-      <c r="E57" s="77"/>
-      <c r="F57" s="78"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" s="76"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="76"/>
+      <c r="E57" s="76"/>
+      <c r="F57" s="77"/>
       <c r="G57" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" customHeight="1" ht="16.5">
-      <c r="A58" s="103" t="s">
-        <v>79</v>
-      </c>
-      <c r="B58" s="89"/>
-      <c r="C58" s="89"/>
-      <c r="D58" s="89"/>
-      <c r="E58" s="89"/>
-      <c r="F58" s="90"/>
-      <c r="G58" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" s="104" t="s">
-        <v>80</v>
-      </c>
-      <c r="I58" s="104"/>
-      <c r="J58" s="105"/>
-    </row>
-    <row r="59" spans="1:11" customHeight="1" ht="15.75">
-      <c r="A59" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="B59" s="107"/>
-      <c r="C59" s="107"/>
-      <c r="D59" s="107"/>
-      <c r="E59" s="107"/>
-      <c r="F59" s="107"/>
-      <c r="G59" s="107"/>
-      <c r="H59" s="107"/>
-      <c r="I59" s="107"/>
-      <c r="J59" s="108"/>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="93"/>
-      <c r="B60" s="93"/>
-      <c r="C60" s="93"/>
-      <c r="D60" s="93"/>
-      <c r="E60" s="93"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="99" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" s="88"/>
+      <c r="C58" s="88"/>
+      <c r="D58" s="88"/>
+      <c r="E58" s="88"/>
+      <c r="F58" s="89"/>
+      <c r="G58" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="I58" s="100"/>
+      <c r="J58" s="101"/>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="102" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="103"/>
+      <c r="C59" s="103"/>
+      <c r="D59" s="103"/>
+      <c r="E59" s="103"/>
+      <c r="F59" s="103"/>
+      <c r="G59" s="103"/>
+      <c r="H59" s="103"/>
+      <c r="I59" s="103"/>
+      <c r="J59" s="104"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="91"/>
+      <c r="B60" s="91"/>
+      <c r="C60" s="91"/>
+      <c r="D60" s="91"/>
+      <c r="E60" s="91"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="80"/>
-      <c r="B61" s="80"/>
-      <c r="C61" s="80"/>
-      <c r="D61" s="80"/>
-      <c r="E61" s="80"/>
-      <c r="F61" s="80"/>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="80"/>
-      <c r="B62" s="80"/>
-      <c r="C62" s="80"/>
-      <c r="D62" s="80"/>
-      <c r="E62" s="80"/>
-      <c r="F62" s="80"/>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="79"/>
+      <c r="B61" s="79"/>
+      <c r="C61" s="79"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="79"/>
+      <c r="F61" s="79"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="79"/>
+      <c r="B62" s="79"/>
+      <c r="C62" s="79"/>
+      <c r="D62" s="79"/>
+      <c r="E62" s="79"/>
+      <c r="F62" s="79"/>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="77">
     <mergeCell ref="A61:F61"/>
     <mergeCell ref="A62:F62"/>
     <mergeCell ref="G55:J55"/>
@@ -2174,18 +2098,7 @@
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="H13:J13"/>
   </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
   <drawing r:id="rId1"/>
-  <tableParts count="0"/>
 </worksheet>
 </file>